--- a/OLD_NEW_test.xlsx
+++ b/OLD_NEW_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerim.aydin\Work\src\reem_diets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF585A6-2989-48F8-8CF8-77242B972C1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2FDD32-79A8-4E7C-BC16-952C0EB7E53C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9168" xr2:uid="{76405B08-2A26-4860-9457-1B4D775FDD9F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9165" xr2:uid="{76405B08-2A26-4860-9457-1B4D775FDD9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -848,19 +848,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C3BB51-4CB9-4B63-A241-662173120625}">
-  <dimension ref="A1:AP57"/>
+  <dimension ref="A1:AQ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" topLeftCell="S16" workbookViewId="0">
+      <selection activeCell="AQ31" sqref="AI31:AQ31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
-    <col min="43" max="43" width="14.5546875" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" customWidth="1"/>
+    <col min="44" max="44" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -912,80 +912,80 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>128</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>129</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>130</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>131</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>132</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>133</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>134</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>135</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>136</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>137</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>138</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>139</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>140</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>141</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>142</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>143</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>144</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>145</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>146</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>147</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>148</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>149</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>150</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>58.015000000000001</v>
       </c>
@@ -1037,84 +1037,84 @@
       <c r="Q2" t="s">
         <v>79</v>
       </c>
-      <c r="R2">
-        <v>1982</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="S2">
+        <v>1982</v>
+      </c>
+      <c r="T2" t="s">
         <v>152</v>
       </c>
-      <c r="T2">
-        <v>10285</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="U2">
+        <v>10285</v>
+      </c>
+      <c r="V2" t="s">
         <v>153</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>154</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>155</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
       </c>
       <c r="Y2">
         <v>1</v>
       </c>
       <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
         <v>198203</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>857</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>78</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>37</v>
       </c>
-      <c r="AD2">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="1">
+      <c r="AE2">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="1">
         <v>30100</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>2.6669999999999998</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>58.015000000000001</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>-158.31666999999999</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>0.5</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>0.68</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>4</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4.2818685000000002E-2</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>15.8809174079027</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>93.417161222956807</v>
       </c>
-      <c r="AP2">
-        <f>AN2/G2</f>
+      <c r="AQ2">
+        <f>AO2/G2</f>
         <v>100.00577712785076</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>57.671669999999999</v>
       </c>
@@ -1166,84 +1166,84 @@
       <c r="Q3" t="s">
         <v>54</v>
       </c>
-      <c r="R3">
-        <v>1982</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="S3">
+        <v>1982</v>
+      </c>
+      <c r="T3" t="s">
         <v>152</v>
       </c>
-      <c r="T3">
-        <v>10285</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="U3">
+        <v>10285</v>
+      </c>
+      <c r="V3" t="s">
         <v>153</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>154</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>155</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>198203</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>858</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>53</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>38</v>
       </c>
-      <c r="AD3">
-        <v>10</v>
-      </c>
-      <c r="AE3" s="1">
+      <c r="AE3">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="1">
         <v>30100</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>2.8889999999999998</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>57.671669999999999</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-158.36000000000001</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.6</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1.89</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>6</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>4.6382895E-2</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>40.747779973630401</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>129.35803166231901</v>
       </c>
-      <c r="AP3">
-        <f t="shared" ref="AP3:AP57" si="0">AN3/G3</f>
+      <c r="AQ3">
+        <f t="shared" ref="AQ3:AQ57" si="0">AO3/G3</f>
         <v>101.61541140556209</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>57.338329999999999</v>
       </c>
@@ -1295,84 +1295,84 @@
       <c r="Q4" t="s">
         <v>36</v>
       </c>
-      <c r="R4">
-        <v>1982</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="S4">
+        <v>1982</v>
+      </c>
+      <c r="T4" t="s">
         <v>152</v>
       </c>
-      <c r="T4">
-        <v>10285</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="U4">
+        <v>10285</v>
+      </c>
+      <c r="V4" t="s">
         <v>153</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>154</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>155</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>198203</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>859</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>35</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>29</v>
       </c>
-      <c r="AD4">
-        <v>10</v>
-      </c>
-      <c r="AE4" s="1">
+      <c r="AE4">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="1">
         <v>30100</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>2.6669999999999998</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>57.338329999999999</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-158.41</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>0.5</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>2.4</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>3.0390000000000001</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>18</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>4.3845479999999999E-2</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>69.311591525511901</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>410.53262502771099</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <f t="shared" si="0"/>
         <v>100.00229624226215</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>56.685000000000002</v>
       </c>
@@ -1424,84 +1424,84 @@
       <c r="Q5" t="s">
         <v>26</v>
       </c>
-      <c r="R5">
-        <v>1982</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="S5">
+        <v>1982</v>
+      </c>
+      <c r="T5" t="s">
         <v>152</v>
       </c>
-      <c r="T5">
-        <v>10285</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="U5">
+        <v>10285</v>
+      </c>
+      <c r="V5" t="s">
         <v>153</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>154</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>155</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>4</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>198203</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>860</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>25</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>40</v>
       </c>
-      <c r="AD5">
-        <v>10</v>
-      </c>
-      <c r="AE5" s="1">
+      <c r="AE5">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="1">
         <v>30100</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>2.8889999999999998</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>56.685000000000002</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-159.76</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0.7</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>2.8</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1.784</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>11</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>4.7495160000000002E-2</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>37.561722078628598</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>231.602546448943</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <f t="shared" si="0"/>
         <v>100.83683779497611</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>56.99333</v>
       </c>
@@ -1553,84 +1553,84 @@
       <c r="Q6" t="s">
         <v>28</v>
       </c>
-      <c r="R6">
-        <v>1982</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="S6">
+        <v>1982</v>
+      </c>
+      <c r="T6" t="s">
         <v>152</v>
       </c>
-      <c r="T6">
-        <v>10285</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="U6">
+        <v>10285</v>
+      </c>
+      <c r="V6" t="s">
         <v>153</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>154</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>155</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>6</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>198203</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>862</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>27</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>59</v>
       </c>
-      <c r="AD6">
-        <v>10</v>
-      </c>
-      <c r="AE6" s="1">
+      <c r="AE6">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="1">
         <v>30107</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>2.6850000000000001</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>56.99333</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-159.72333</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>0.4</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>0.8</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>2.4950000000000001</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>6</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>4.4178990000000001E-2</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>56.474808500601803</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>135.811162726898</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <f t="shared" si="0"/>
         <v>100.00851514184842</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>57.316670000000002</v>
       </c>
@@ -1682,84 +1682,84 @@
       <c r="Q7" t="s">
         <v>32</v>
       </c>
-      <c r="R7">
-        <v>1982</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="S7">
+        <v>1982</v>
+      </c>
+      <c r="T7" t="s">
         <v>152</v>
       </c>
-      <c r="T7">
-        <v>10285</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="U7">
+        <v>10285</v>
+      </c>
+      <c r="V7" t="s">
         <v>153</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>154</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>155</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>1</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>7</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>198203</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>863</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>31</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>59</v>
       </c>
-      <c r="AD7">
-        <v>10</v>
-      </c>
-      <c r="AE7" s="1">
+      <c r="AE7">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="1">
         <v>30107</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>2.5190000000000001</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>57.316670000000002</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-159.66333</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>0.6</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>1.8</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>0.59</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>3</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>4.1412360000000002E-2</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>14.246954290941201</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>72.442140462412695</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <f t="shared" si="0"/>
         <v>99.97862660309616</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>57.65</v>
       </c>
@@ -1811,84 +1811,84 @@
       <c r="Q8" t="s">
         <v>44</v>
       </c>
-      <c r="R8">
-        <v>1982</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="S8">
+        <v>1982</v>
+      </c>
+      <c r="T8" t="s">
         <v>152</v>
       </c>
-      <c r="T8">
-        <v>10285</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="U8">
+        <v>10285</v>
+      </c>
+      <c r="V8" t="s">
         <v>153</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>154</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>155</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>1</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>8</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>198203</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>864</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>43</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>55</v>
       </c>
-      <c r="AD8">
-        <v>10</v>
-      </c>
-      <c r="AE8" s="1">
+      <c r="AE8">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="1">
         <v>30107</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>2.0369999999999999</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>57.65</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>-159.64167</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>0.3</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>1</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>11.113</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>46</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>3.3488280000000002E-2</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>331.847440358239</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>1373.6148885520499</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <f t="shared" si="0"/>
         <v>99.999228675075798</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>57.996670000000002</v>
       </c>
@@ -1940,84 +1940,84 @@
       <c r="Q9" t="s">
         <v>72</v>
       </c>
-      <c r="R9">
-        <v>1982</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="S9">
+        <v>1982</v>
+      </c>
+      <c r="T9" t="s">
         <v>152</v>
       </c>
-      <c r="T9">
-        <v>10285</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="U9">
+        <v>10285</v>
+      </c>
+      <c r="V9" t="s">
         <v>153</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>154</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>155</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>1</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>9</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>198203</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>865</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>71</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>44</v>
       </c>
-      <c r="AD9">
-        <v>10</v>
-      </c>
-      <c r="AE9" s="1">
+      <c r="AE9">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="1">
         <v>30108</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>2.593</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>57.996670000000002</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-159.60499999999999</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>0</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>0.9</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>2.4489999999999998</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>9</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>4.2628920000000001E-2</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>57.449262144103102</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>211.124279010587</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <f t="shared" si="0"/>
         <v>99.998715655531939</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>58.321669999999997</v>
       </c>
@@ -2069,84 +2069,84 @@
       <c r="Q10" t="s">
         <v>91</v>
       </c>
-      <c r="R10">
-        <v>1982</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="S10">
+        <v>1982</v>
+      </c>
+      <c r="T10" t="s">
         <v>152</v>
       </c>
-      <c r="T10">
-        <v>10285</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="U10">
+        <v>10285</v>
+      </c>
+      <c r="V10" t="s">
         <v>153</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>154</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>155</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1</v>
       </c>
-      <c r="Y10">
-        <v>10</v>
-      </c>
       <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
         <v>198203</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>866</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>90</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>26</v>
       </c>
-      <c r="AD10">
-        <v>10</v>
-      </c>
-      <c r="AE10" s="1">
+      <c r="AE10">
+        <v>10</v>
+      </c>
+      <c r="AF10" s="1">
         <v>30108</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>2.722</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>58.321669999999997</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-159.54</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>0.8</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>31.933</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>129</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>4.2098452000000001E-2</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>758.531453840631</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>3064.2456877036698</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <f t="shared" si="0"/>
         <v>100.00019166554138</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>58.333329999999997</v>
       </c>
@@ -2198,84 +2198,84 @@
       <c r="Q11" t="s">
         <v>96</v>
       </c>
-      <c r="R11">
-        <v>1982</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="S11">
+        <v>1982</v>
+      </c>
+      <c r="T11" t="s">
         <v>152</v>
       </c>
-      <c r="T11">
-        <v>10285</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="U11">
+        <v>10285</v>
+      </c>
+      <c r="V11" t="s">
         <v>153</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>154</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>155</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>11</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>198203</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>867</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>95</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>20</v>
       </c>
-      <c r="AD11">
-        <v>10</v>
-      </c>
-      <c r="AE11" s="1">
+      <c r="AE11">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="1">
         <v>30108</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>2.7040000000000002</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>58.333329999999997</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-160.72166999999999</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>2.0870000000000002</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>15</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>4.1820063999999997E-2</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>49.904275612777603</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>358.67950847707903</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <f t="shared" si="0"/>
         <v>100.00856836227976</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>58.001669999999997</v>
       </c>
@@ -2327,84 +2327,84 @@
       <c r="Q12" t="s">
         <v>22</v>
       </c>
-      <c r="R12">
-        <v>1982</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="S12">
+        <v>1982</v>
+      </c>
+      <c r="T12" t="s">
         <v>152</v>
       </c>
-      <c r="T12">
-        <v>10285</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="U12">
+        <v>10285</v>
+      </c>
+      <c r="V12" t="s">
         <v>153</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>154</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>155</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>12</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>198203</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>868</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>73</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>46</v>
       </c>
-      <c r="AD12">
-        <v>10</v>
-      </c>
-      <c r="AE12" s="1">
+      <c r="AE12">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="1">
         <v>30108</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>2.7589999999999999</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>58.001669999999997</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-160.85333</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1.9</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>3.7</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>90.72</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>327</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>4.5357960000000003E-2</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>2000.08995113537</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>7209.3189376241799</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <f t="shared" si="0"/>
         <v>100.20189529049077</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>56.341670000000001</v>
       </c>
@@ -2456,84 +2456,84 @@
       <c r="Q13" t="s">
         <v>24</v>
       </c>
-      <c r="R13">
-        <v>1982</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="S13">
+        <v>1982</v>
+      </c>
+      <c r="T13" t="s">
         <v>152</v>
       </c>
-      <c r="T13">
-        <v>10285</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="U13">
+        <v>10285</v>
+      </c>
+      <c r="V13" t="s">
         <v>153</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>154</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>155</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>1</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>17</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>198203</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>873</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>23</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>53</v>
       </c>
-      <c r="AD13">
-        <v>10</v>
-      </c>
-      <c r="AE13" s="1">
+      <c r="AE13">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="1">
         <v>30109</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>2.778</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>56.341670000000001</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-161.00333000000001</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>2.1</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>6.3</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>5.4820000000000002</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>21</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>4.567032E-2</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>120.034192885007</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>459.81722922020202</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <f t="shared" si="0"/>
         <v>101.56036287757594</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>57.335000000000001</v>
       </c>
@@ -2585,84 +2585,84 @@
       <c r="Q14" t="s">
         <v>34</v>
       </c>
-      <c r="R14">
-        <v>1982</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="S14">
+        <v>1982</v>
+      </c>
+      <c r="T14" t="s">
         <v>152</v>
       </c>
-      <c r="T14">
-        <v>10285</v>
-      </c>
-      <c r="U14" t="s">
+      <c r="U14">
+        <v>10285</v>
+      </c>
+      <c r="V14" t="s">
         <v>153</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>154</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>155</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>22</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>198203</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>878</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>33</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>53</v>
       </c>
-      <c r="AD14">
-        <v>10</v>
-      </c>
-      <c r="AE14" s="1">
+      <c r="AE14">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="1">
         <v>30111</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>2.778</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>57.335000000000001</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-162.15333000000001</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>0.5</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1.6</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>135.624</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>318</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>4.567032E-2</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2969.63104265527</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>6962.9466139059195</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <f t="shared" si="0"/>
         <v>100.00003511061209</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57.664999999999999</v>
       </c>
@@ -2714,84 +2714,84 @@
       <c r="Q15" t="s">
         <v>52</v>
       </c>
-      <c r="R15">
-        <v>1982</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="S15">
+        <v>1982</v>
+      </c>
+      <c r="T15" t="s">
         <v>152</v>
       </c>
-      <c r="T15">
-        <v>10285</v>
-      </c>
-      <c r="U15" t="s">
+      <c r="U15">
+        <v>10285</v>
+      </c>
+      <c r="V15" t="s">
         <v>153</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>154</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>155</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>23</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>198203</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>879</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>51</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>49</v>
       </c>
-      <c r="AD15">
-        <v>10</v>
-      </c>
-      <c r="AE15" s="1">
+      <c r="AE15">
+        <v>10</v>
+      </c>
+      <c r="AF15" s="1">
         <v>30111</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>2.778</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>57.664999999999999</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-162.13667000000001</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>2.6</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>149.13</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>376</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>4.567032E-2</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>3265.3592092194699</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>8232.9180088950507</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <f t="shared" si="0"/>
         <v>100.45064645014381</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>57.984999999999999</v>
       </c>
@@ -2843,84 +2843,84 @@
       <c r="Q16" t="s">
         <v>64</v>
       </c>
-      <c r="R16">
-        <v>1982</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="S16">
+        <v>1982</v>
+      </c>
+      <c r="T16" t="s">
         <v>152</v>
       </c>
-      <c r="T16">
-        <v>10285</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="U16">
+        <v>10285</v>
+      </c>
+      <c r="V16" t="s">
         <v>153</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>154</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>155</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>24</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>198203</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>880</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>63</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>40</v>
       </c>
-      <c r="AD16">
-        <v>10</v>
-      </c>
-      <c r="AE16" s="1">
+      <c r="AE16">
+        <v>10</v>
+      </c>
+      <c r="AF16" s="1">
         <v>30111</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>2.5369999999999999</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>57.984999999999999</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-162.13</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1.5</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>2.1</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>36.984999999999999</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>75</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>4.1578892999999999E-2</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>889.51382135161703</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>1803.7998269939501</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <f t="shared" si="0"/>
         <v>99.558326209524438</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>58.311669999999999</v>
       </c>
@@ -2972,84 +2972,84 @@
       <c r="Q17" t="s">
         <v>87</v>
       </c>
-      <c r="R17">
-        <v>1982</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="S17">
+        <v>1982</v>
+      </c>
+      <c r="T17" t="s">
         <v>152</v>
       </c>
-      <c r="T17">
-        <v>10285</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="U17">
+        <v>10285</v>
+      </c>
+      <c r="V17" t="s">
         <v>153</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>154</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>155</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>25</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>198203</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>881</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>86</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>49</v>
       </c>
-      <c r="AD17">
-        <v>10</v>
-      </c>
-      <c r="AE17" s="1">
+      <c r="AE17">
+        <v>10</v>
+      </c>
+      <c r="AF17" s="1">
         <v>30111</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>2.5190000000000001</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>58.311669999999999</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-162.065</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1.5</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>21.981999999999999</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>85</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>4.1283891000000003E-2</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>532.45950097097204</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>2058.9144564886101</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <f t="shared" si="0"/>
         <v>100.12777858719245</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>58.991669999999999</v>
       </c>
@@ -3101,84 +3101,84 @@
       <c r="Q18" t="s">
         <v>121</v>
       </c>
-      <c r="R18">
-        <v>1982</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="S18">
+        <v>1982</v>
+      </c>
+      <c r="T18" t="s">
         <v>152</v>
       </c>
-      <c r="T18">
-        <v>10285</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="U18">
+        <v>10285</v>
+      </c>
+      <c r="V18" t="s">
         <v>153</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>154</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>155</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>26</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>198203</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>882</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>120</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>22</v>
       </c>
-      <c r="AD18">
-        <v>10</v>
-      </c>
-      <c r="AE18" s="1">
+      <c r="AE18">
+        <v>10</v>
+      </c>
+      <c r="AF18" s="1">
         <v>30112</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>2.6480000000000001</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>58.991669999999999</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-163.34666999999999</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>3</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>3.6</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>39.463000000000001</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>148</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>4.0953968E-2</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>963.59405271792002</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>3613.8134404949501</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <f t="shared" si="0"/>
         <v>100.00042058530289</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>58.685000000000002</v>
       </c>
@@ -3230,84 +3230,84 @@
       <c r="Q19" t="s">
         <v>115</v>
       </c>
-      <c r="R19">
-        <v>1982</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="S19">
+        <v>1982</v>
+      </c>
+      <c r="T19" t="s">
         <v>152</v>
       </c>
-      <c r="T19">
-        <v>10285</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="U19">
+        <v>10285</v>
+      </c>
+      <c r="V19" t="s">
         <v>153</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>154</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>155</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>1</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>27</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>198203</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>883</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>114</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>33</v>
       </c>
-      <c r="AD19">
-        <v>10</v>
-      </c>
-      <c r="AE19" s="1">
+      <c r="AE19">
+        <v>10</v>
+      </c>
+      <c r="AF19" s="1">
         <v>30112</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>2.593</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>58.685000000000002</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-163.36167</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1.8</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>2.4</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>202.62</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>587</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>4.1630615000000003E-2</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>4867.0912019916104</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>14100.2000570974</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <f t="shared" si="0"/>
         <v>100.0000246963095</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>58.343330000000002</v>
       </c>
@@ -3359,84 +3359,84 @@
       <c r="Q20" t="s">
         <v>98</v>
       </c>
-      <c r="R20">
-        <v>1982</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="S20">
+        <v>1982</v>
+      </c>
+      <c r="T20" t="s">
         <v>152</v>
       </c>
-      <c r="T20">
-        <v>10285</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="U20">
+        <v>10285</v>
+      </c>
+      <c r="V20" t="s">
         <v>153</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>154</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>155</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>1</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>28</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>198203</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>884</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>97</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>37</v>
       </c>
-      <c r="AD20">
-        <v>10</v>
-      </c>
-      <c r="AE20" s="1">
+      <c r="AE20">
+        <v>10</v>
+      </c>
+      <c r="AF20" s="1">
         <v>30112</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>2.778</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>58.343330000000002</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-163.38499999999999</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>2</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>114.532</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>324</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>4.4600790000000001E-2</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>2567.9365769081701</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>7264.4453158789302</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <f t="shared" si="0"/>
         <v>99.999866698917032</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>58.01</v>
       </c>
@@ -3488,84 +3488,84 @@
       <c r="Q21" t="s">
         <v>77</v>
       </c>
-      <c r="R21">
-        <v>1982</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="S21">
+        <v>1982</v>
+      </c>
+      <c r="T21" t="s">
         <v>152</v>
       </c>
-      <c r="T21">
-        <v>10285</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="U21">
+        <v>10285</v>
+      </c>
+      <c r="V21" t="s">
         <v>153</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>154</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>155</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>1</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>29</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>198203</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>885</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>76</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>46</v>
       </c>
-      <c r="AD21">
-        <v>10</v>
-      </c>
-      <c r="AE21" s="1">
+      <c r="AE21">
+        <v>10</v>
+      </c>
+      <c r="AF21" s="1">
         <v>30112</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>2.778</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>58.01</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-163.39167</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.7</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>2</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>120.65600000000001</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>321</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>4.5528642000000001E-2</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>2650.1119888443</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>7050.50679965372</v>
       </c>
-      <c r="AP21">
+      <c r="AQ21">
         <f t="shared" si="0"/>
         <v>100.00007504761311</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>57.685000000000002</v>
       </c>
@@ -3617,84 +3617,84 @@
       <c r="Q22" t="s">
         <v>56</v>
       </c>
-      <c r="R22">
-        <v>1982</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="S22">
+        <v>1982</v>
+      </c>
+      <c r="T22" t="s">
         <v>152</v>
       </c>
-      <c r="T22">
-        <v>10285</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="U22">
+        <v>10285</v>
+      </c>
+      <c r="V22" t="s">
         <v>153</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>154</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>155</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>30</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>198203</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>886</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>55</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>48</v>
       </c>
-      <c r="AD22">
-        <v>10</v>
-      </c>
-      <c r="AE22" s="1">
+      <c r="AE22">
+        <v>10</v>
+      </c>
+      <c r="AF22" s="1">
         <v>30112</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>2.8889999999999998</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>57.685000000000002</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-163.39167</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.7</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>264.63900000000001</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>743</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>4.7391155999999997E-2</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>5584.14316797843</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <v>15678.0307279274</v>
       </c>
-      <c r="AP22">
+      <c r="AQ22">
         <f t="shared" si="0"/>
         <v>99.936524180447194</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>57.344999999999999</v>
       </c>
@@ -3746,84 +3746,84 @@
       <c r="Q23" t="s">
         <v>42</v>
       </c>
-      <c r="R23">
-        <v>1982</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="S23">
+        <v>1982</v>
+      </c>
+      <c r="T23" t="s">
         <v>152</v>
       </c>
-      <c r="T23">
-        <v>10285</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="U23">
+        <v>10285</v>
+      </c>
+      <c r="V23" t="s">
         <v>153</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>154</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>155</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>1</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>31</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>198203</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>887</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>41</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>57</v>
       </c>
-      <c r="AD23">
-        <v>10</v>
-      </c>
-      <c r="AE23" s="1">
+      <c r="AE23">
+        <v>10</v>
+      </c>
+      <c r="AF23" s="1">
         <v>30113</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>2.6669999999999998</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>57.344999999999999</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-163.4</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.3</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>2.9</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>141.52099999999999</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>272</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>4.3845479999999999E-2</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>3227.72153480815</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <v>6203.6041115298503</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <f t="shared" si="0"/>
         <v>100.00004755084548</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>57.656669999999998</v>
       </c>
@@ -3875,84 +3875,84 @@
       <c r="Q24" t="s">
         <v>50</v>
       </c>
-      <c r="R24">
-        <v>1982</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="S24">
+        <v>1982</v>
+      </c>
+      <c r="T24" t="s">
         <v>152</v>
       </c>
-      <c r="T24">
-        <v>10285</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="U24">
+        <v>10285</v>
+      </c>
+      <c r="V24" t="s">
         <v>153</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>154</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>155</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>46</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>198203</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>902</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>49</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>57</v>
       </c>
-      <c r="AD24">
-        <v>10</v>
-      </c>
-      <c r="AE24" s="1">
+      <c r="AE24">
+        <v>10</v>
+      </c>
+      <c r="AF24" s="1">
         <v>30116</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>2.778</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>57.656669999999998</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>-164.62</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.4</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>3.7</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>262.99200000000002</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>645</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>4.567032E-2</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>5758.4882260513996</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>14122.9577546205</v>
       </c>
-      <c r="AP24">
+      <c r="AQ24">
         <f t="shared" si="0"/>
         <v>100.18978815521315</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>57.99</v>
       </c>
@@ -4004,84 +4004,84 @@
       <c r="Q25" t="s">
         <v>68</v>
       </c>
-      <c r="R25">
-        <v>1982</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="S25">
+        <v>1982</v>
+      </c>
+      <c r="T25" t="s">
         <v>152</v>
       </c>
-      <c r="T25">
-        <v>10285</v>
-      </c>
-      <c r="U25" t="s">
+      <c r="U25">
+        <v>10285</v>
+      </c>
+      <c r="V25" t="s">
         <v>153</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>154</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>155</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>1</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>47</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>198203</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>903</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>67</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>48</v>
       </c>
-      <c r="AD25">
-        <v>10</v>
-      </c>
-      <c r="AE25" s="1">
+      <c r="AE25">
+        <v>10</v>
+      </c>
+      <c r="AF25" s="1">
         <v>30116</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>2.6850000000000001</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>57.99</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-164.625</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.8</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>2.4</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>103.419</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>293</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>4.4044739999999999E-2</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>2348.0442840620699</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <v>6652.3267023485696</v>
       </c>
-      <c r="AP25">
+      <c r="AQ25">
         <f t="shared" si="0"/>
         <v>100.00018245268691</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>58.318330000000003</v>
       </c>
@@ -4133,84 +4133,84 @@
       <c r="Q26" t="s">
         <v>89</v>
       </c>
-      <c r="R26">
-        <v>1982</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="S26">
+        <v>1982</v>
+      </c>
+      <c r="T26" t="s">
         <v>152</v>
       </c>
-      <c r="T26">
-        <v>10285</v>
-      </c>
-      <c r="U26" t="s">
+      <c r="U26">
+        <v>10285</v>
+      </c>
+      <c r="V26" t="s">
         <v>153</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>154</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>155</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>48</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>198203</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>904</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>88</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>46</v>
       </c>
-      <c r="AD26">
-        <v>10</v>
-      </c>
-      <c r="AE26" s="1">
+      <c r="AE26">
+        <v>10</v>
+      </c>
+      <c r="AF26" s="1">
         <v>30116</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>2.778</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>58.318330000000003</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>-164.63</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>3.5</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>102.376</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>316</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>4.5528642000000001E-2</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>2248.60649258987</v>
       </c>
-      <c r="AO26">
+      <c r="AP26">
         <v>6940.6858214659696</v>
       </c>
-      <c r="AP26">
+      <c r="AQ26">
         <f t="shared" si="0"/>
         <v>99.999844018743573</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>58.651670000000003</v>
       </c>
@@ -4262,84 +4262,84 @@
       <c r="Q27" t="s">
         <v>81</v>
       </c>
-      <c r="R27">
-        <v>1982</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="S27">
+        <v>1982</v>
+      </c>
+      <c r="T27" t="s">
         <v>152</v>
       </c>
-      <c r="T27">
-        <v>10285</v>
-      </c>
-      <c r="U27" t="s">
+      <c r="U27">
+        <v>10285</v>
+      </c>
+      <c r="V27" t="s">
         <v>153</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>154</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>155</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>49</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>198203</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>905</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>105</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>40</v>
       </c>
-      <c r="AD27">
-        <v>10</v>
-      </c>
-      <c r="AE27" s="1">
+      <c r="AE27">
+        <v>10</v>
+      </c>
+      <c r="AF27" s="1">
         <v>30116</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>2.6850000000000001</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>58.651670000000003</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-164.65167</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1.5</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>3.6</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>102.965</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>312</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>4.4004465E-2</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>2339.87619210914</v>
       </c>
-      <c r="AO27">
+      <c r="AP27">
         <v>7090.18959780559</v>
       </c>
-      <c r="AP27">
+      <c r="AQ27">
         <f t="shared" si="0"/>
         <v>99.999837261275786</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>58.988329999999998</v>
       </c>
@@ -4391,84 +4391,84 @@
       <c r="Q28" t="s">
         <v>117</v>
       </c>
-      <c r="R28">
-        <v>1982</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="S28">
+        <v>1982</v>
+      </c>
+      <c r="T28" t="s">
         <v>152</v>
       </c>
-      <c r="T28">
-        <v>10285</v>
-      </c>
-      <c r="U28" t="s">
+      <c r="U28">
+        <v>10285</v>
+      </c>
+      <c r="V28" t="s">
         <v>153</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>154</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>155</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>1</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>50</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>198203</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>906</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>116</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>29</v>
       </c>
-      <c r="AD28">
-        <v>10</v>
-      </c>
-      <c r="AE28" s="1">
+      <c r="AE28">
+        <v>10</v>
+      </c>
+      <c r="AF28" s="1">
         <v>30117</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>2.556</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>58.988329999999998</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-164.63667000000001</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>3</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>3.2</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>188.69399999999999</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>431</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>3.9531096000000002E-2</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>4773.3055516598897</v>
       </c>
-      <c r="AO28">
+      <c r="AP28">
         <v>10902.809271971601</v>
       </c>
-      <c r="AP28">
+      <c r="AQ28">
         <f t="shared" si="0"/>
         <v>99.999906808061695</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>59.32</v>
       </c>
@@ -4520,84 +4520,84 @@
       <c r="Q29" t="s">
         <v>127</v>
       </c>
-      <c r="R29">
-        <v>1982</v>
-      </c>
-      <c r="S29" t="s">
+      <c r="S29">
+        <v>1982</v>
+      </c>
+      <c r="T29" t="s">
         <v>152</v>
       </c>
-      <c r="T29">
-        <v>10285</v>
-      </c>
-      <c r="U29" t="s">
+      <c r="U29">
+        <v>10285</v>
+      </c>
+      <c r="V29" t="s">
         <v>153</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>154</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>155</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>51</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>198203</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>907</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>126</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>22</v>
       </c>
-      <c r="AD29">
-        <v>10</v>
-      </c>
-      <c r="AE29" s="1">
+      <c r="AE29">
+        <v>10</v>
+      </c>
+      <c r="AF29" s="1">
         <v>30117</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>2.778</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>59.32</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-164.655</v>
-      </c>
-      <c r="AI29">
-        <v>5.0999999999999996</v>
       </c>
       <c r="AJ29">
         <v>5.0999999999999996</v>
       </c>
       <c r="AK29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AL29">
         <v>85.728999999999999</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>384</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>4.2964547999999998E-2</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>1995.3427649232999</v>
       </c>
-      <c r="AO29">
+      <c r="AP29">
         <v>8937.6012986334699</v>
       </c>
-      <c r="AP29">
+      <c r="AQ29">
         <f t="shared" si="0"/>
         <v>100.00013856903084</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>58.681669999999997</v>
       </c>
@@ -4649,84 +4649,84 @@
       <c r="Q30" t="s">
         <v>111</v>
       </c>
-      <c r="R30">
-        <v>1982</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="S30">
+        <v>1982</v>
+      </c>
+      <c r="T30" t="s">
         <v>152</v>
       </c>
-      <c r="T30">
-        <v>10285</v>
-      </c>
-      <c r="U30" t="s">
+      <c r="U30">
+        <v>10285</v>
+      </c>
+      <c r="V30" t="s">
         <v>153</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>154</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>155</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>55</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>198203</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>911</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>110</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>38</v>
       </c>
-      <c r="AD30">
-        <v>10</v>
-      </c>
-      <c r="AE30" s="1">
+      <c r="AE30">
+        <v>10</v>
+      </c>
+      <c r="AF30" s="1">
         <v>30118</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>2.6110000000000002</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>58.681669999999997</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-165.91833</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1.7</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>2.8</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>77.563999999999993</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>210</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>4.1919604999999999E-2</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1850.3036944169701</v>
       </c>
-      <c r="AO30">
+      <c r="AP30">
         <v>5009.5891886385898</v>
       </c>
-      <c r="AP30">
+      <c r="AQ30">
         <f t="shared" si="0"/>
         <v>100.00019966583635</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>58.344999999999999</v>
       </c>
@@ -4778,84 +4778,84 @@
       <c r="Q31" t="s">
         <v>100</v>
       </c>
-      <c r="R31">
-        <v>1982</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="S31">
+        <v>1982</v>
+      </c>
+      <c r="T31" t="s">
         <v>152</v>
       </c>
-      <c r="T31">
-        <v>10285</v>
-      </c>
-      <c r="U31" t="s">
+      <c r="U31">
+        <v>10285</v>
+      </c>
+      <c r="V31" t="s">
         <v>153</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>154</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>155</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>1</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>56</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>198203</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>912</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>99</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>46</v>
       </c>
-      <c r="AD31">
-        <v>10</v>
-      </c>
-      <c r="AE31" s="1">
+      <c r="AE31">
+        <v>10</v>
+      </c>
+      <c r="AF31" s="1">
         <v>30118</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>2.8340000000000001</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>58.344999999999999</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-165.91667000000001</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1.2</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>185.69399999999999</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>513</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>4.6590960000000001E-2</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>3985.6229620510098</v>
       </c>
-      <c r="AO31">
+      <c r="AP31">
         <v>11010.7196760917</v>
       </c>
-      <c r="AP31">
+      <c r="AQ31">
         <f t="shared" si="0"/>
         <v>96.827022835240243</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>57.994999999999997</v>
       </c>
@@ -4907,84 +4907,84 @@
       <c r="Q32" t="s">
         <v>70</v>
       </c>
-      <c r="R32">
-        <v>1982</v>
-      </c>
-      <c r="S32" t="s">
+      <c r="S32">
+        <v>1982</v>
+      </c>
+      <c r="T32" t="s">
         <v>152</v>
       </c>
-      <c r="T32">
-        <v>10285</v>
-      </c>
-      <c r="U32" t="s">
+      <c r="U32">
+        <v>10285</v>
+      </c>
+      <c r="V32" t="s">
         <v>153</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>154</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>155</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>1</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>57</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>198203</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>913</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>69</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>59</v>
       </c>
-      <c r="AD32">
-        <v>10</v>
-      </c>
-      <c r="AE32" s="1">
+      <c r="AE32">
+        <v>10</v>
+      </c>
+      <c r="AF32" s="1">
         <v>30119</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>2.7589999999999999</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>57.994999999999997</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-165.9</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>1</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>4.5</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>200.98699999999999</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>467</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>4.5357960000000003E-2</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>4431.1296187041899</v>
       </c>
-      <c r="AO32">
+      <c r="AP32">
         <v>10295.877504191099</v>
       </c>
-      <c r="AP32">
+      <c r="AQ32">
         <f t="shared" si="0"/>
         <v>99.999991395066033</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>58.00667</v>
       </c>
@@ -5036,84 +5036,84 @@
       <c r="Q33" t="s">
         <v>75</v>
       </c>
-      <c r="R33">
-        <v>1982</v>
-      </c>
-      <c r="S33" t="s">
+      <c r="S33">
+        <v>1982</v>
+      </c>
+      <c r="T33" t="s">
         <v>152</v>
       </c>
-      <c r="T33">
-        <v>10285</v>
-      </c>
-      <c r="U33" t="s">
+      <c r="U33">
+        <v>10285</v>
+      </c>
+      <c r="V33" t="s">
         <v>153</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>154</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>155</v>
       </c>
-      <c r="X33">
-        <v>19</v>
-      </c>
       <c r="Y33">
+        <v>19</v>
+      </c>
+      <c r="Z33">
         <v>1</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>198201</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>4203</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
         <v>74</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>40</v>
       </c>
-      <c r="AD33">
-        <v>10</v>
-      </c>
-      <c r="AE33" s="1">
+      <c r="AE33">
+        <v>10</v>
+      </c>
+      <c r="AF33" s="1">
         <v>30102</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>2.1480000000000001</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>58.00667</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>-158.92433</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>-0.2</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-0.9</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.81599999999999995</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>3</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>3.4516211999999998E-2</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>23.641064668394101</v>
       </c>
-      <c r="AO33">
+      <c r="AP33">
         <v>86.915678927919402</v>
       </c>
-      <c r="AP33">
+      <c r="AQ33">
         <f t="shared" si="0"/>
         <v>100.0045036734099</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>57.339170000000003</v>
       </c>
@@ -5165,84 +5165,84 @@
       <c r="Q34" t="s">
         <v>38</v>
       </c>
-      <c r="R34">
-        <v>1982</v>
-      </c>
-      <c r="S34" t="s">
+      <c r="S34">
+        <v>1982</v>
+      </c>
+      <c r="T34" t="s">
         <v>152</v>
       </c>
-      <c r="T34">
-        <v>10285</v>
-      </c>
-      <c r="U34" t="s">
+      <c r="U34">
+        <v>10285</v>
+      </c>
+      <c r="V34" t="s">
         <v>153</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>154</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>155</v>
       </c>
-      <c r="X34">
-        <v>19</v>
-      </c>
       <c r="Y34">
+        <v>19</v>
+      </c>
+      <c r="Z34">
         <v>3</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>198201</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>4205</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
         <v>37</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>46</v>
       </c>
-      <c r="AD34">
-        <v>10</v>
-      </c>
-      <c r="AE34" s="1">
+      <c r="AE34">
+        <v>10</v>
+      </c>
+      <c r="AF34" s="1">
         <v>30102</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>2.9820000000000002</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>57.339170000000003</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>-159.08733000000001</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.6</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>1.3</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>5.9870000000000001</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>40</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>4.7917757999999998E-2</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>124.943241292717</v>
       </c>
-      <c r="AO34">
+      <c r="AP34">
         <v>834.76359641033298</v>
       </c>
-      <c r="AP34">
+      <c r="AQ34">
         <f t="shared" si="0"/>
         <v>100.00259427942773</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>57.004669999999997</v>
       </c>
@@ -5294,84 +5294,84 @@
       <c r="Q35" t="s">
         <v>30</v>
       </c>
-      <c r="R35">
-        <v>1982</v>
-      </c>
-      <c r="S35" t="s">
+      <c r="S35">
+        <v>1982</v>
+      </c>
+      <c r="T35" t="s">
         <v>152</v>
       </c>
-      <c r="T35">
-        <v>10285</v>
-      </c>
-      <c r="U35" t="s">
+      <c r="U35">
+        <v>10285</v>
+      </c>
+      <c r="V35" t="s">
         <v>153</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>154</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>155</v>
       </c>
-      <c r="X35">
-        <v>19</v>
-      </c>
       <c r="Y35">
+        <v>19</v>
+      </c>
+      <c r="Z35">
         <v>5</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>198201</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>4207</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
         <v>29</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>29</v>
       </c>
-      <c r="AD35">
-        <v>10</v>
-      </c>
-      <c r="AE35" s="1">
+      <c r="AE35">
+        <v>10</v>
+      </c>
+      <c r="AF35" s="1">
         <v>30102</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>2.5</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>57.004669999999997</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>-159.09632999999999</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>0.3</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>0.7</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>1.1339999999999999</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>13</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>4.01725E-2</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>28.228265604580201</v>
       </c>
-      <c r="AO35">
+      <c r="AP35">
         <v>323.60445578443</v>
       </c>
-      <c r="AP35">
+      <c r="AQ35">
         <f t="shared" si="0"/>
         <v>99.993856197591924</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>57.985999999999997</v>
       </c>
@@ -5423,84 +5423,84 @@
       <c r="Q36" t="s">
         <v>66</v>
       </c>
-      <c r="R36">
-        <v>1982</v>
-      </c>
-      <c r="S36" t="s">
+      <c r="S36">
+        <v>1982</v>
+      </c>
+      <c r="T36" t="s">
         <v>152</v>
       </c>
-      <c r="T36">
-        <v>10285</v>
-      </c>
-      <c r="U36" t="s">
+      <c r="U36">
+        <v>10285</v>
+      </c>
+      <c r="V36" t="s">
         <v>153</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>154</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>155</v>
       </c>
-      <c r="X36">
-        <v>19</v>
-      </c>
       <c r="Y36">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Z36">
+        <v>10</v>
+      </c>
+      <c r="AA36">
         <v>198201</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>4212</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AC36" t="s">
         <v>65</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>49</v>
       </c>
-      <c r="AD36">
-        <v>10</v>
-      </c>
-      <c r="AE36" s="1">
+      <c r="AE36">
+        <v>10</v>
+      </c>
+      <c r="AF36" s="1">
         <v>30103</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>3.3149999999999999</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>57.985999999999997</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>-160.20332999999999</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>1.2</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>56.970999999999997</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>181</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>5.3268734999999998E-2</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>1069.50165045218</v>
       </c>
-      <c r="AO36">
+      <c r="AP36">
         <v>3397.8655584744001</v>
       </c>
-      <c r="AP36">
+      <c r="AQ36">
         <f t="shared" si="0"/>
         <v>100.00015431997943</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>56.318170000000002</v>
       </c>
@@ -5552,84 +5552,84 @@
       <c r="Q37" t="s">
         <v>22</v>
       </c>
-      <c r="R37">
-        <v>1982</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="S37">
+        <v>1982</v>
+      </c>
+      <c r="T37" t="s">
         <v>152</v>
       </c>
-      <c r="T37">
-        <v>10285</v>
-      </c>
-      <c r="U37" t="s">
+      <c r="U37">
+        <v>10285</v>
+      </c>
+      <c r="V37" t="s">
         <v>153</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>154</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>155</v>
       </c>
-      <c r="X37">
-        <v>19</v>
-      </c>
       <c r="Y37">
+        <v>19</v>
+      </c>
+      <c r="Z37">
         <v>12</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>198201</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>4214</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
         <v>21</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>64</v>
       </c>
-      <c r="AD37">
-        <v>10</v>
-      </c>
-      <c r="AE37" s="1">
+      <c r="AE37">
+        <v>10</v>
+      </c>
+      <c r="AF37" s="1">
         <v>30115</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>2.8149999999999999</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>56.318170000000002</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>-161.63650000000001</v>
       </c>
-      <c r="AI37" t="s">
+      <c r="AJ37" t="s">
         <v>156</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>7.5</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>6.8490000000000002</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>18</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>4.5234234999999998E-2</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>151.41186758215301</v>
       </c>
-      <c r="AO37">
+      <c r="AP37">
         <v>397.92869272576399</v>
       </c>
-      <c r="AP37">
+      <c r="AQ37">
         <f t="shared" si="0"/>
         <v>100.00123346024239</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>57.652169999999998</v>
       </c>
@@ -5681,84 +5681,84 @@
       <c r="Q38" t="s">
         <v>48</v>
       </c>
-      <c r="R38">
-        <v>1982</v>
-      </c>
-      <c r="S38" t="s">
+      <c r="S38">
+        <v>1982</v>
+      </c>
+      <c r="T38" t="s">
         <v>152</v>
       </c>
-      <c r="T38">
-        <v>10285</v>
-      </c>
-      <c r="U38" t="s">
+      <c r="U38">
+        <v>10285</v>
+      </c>
+      <c r="V38" t="s">
         <v>153</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>154</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>155</v>
       </c>
-      <c r="X38">
-        <v>19</v>
-      </c>
       <c r="Y38">
+        <v>19</v>
+      </c>
+      <c r="Z38">
         <v>17</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>198201</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>4219</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AC38" t="s">
         <v>47</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>53</v>
       </c>
-      <c r="AD38">
-        <v>10</v>
-      </c>
-      <c r="AE38" s="1">
+      <c r="AE38">
+        <v>10</v>
+      </c>
+      <c r="AF38" s="1">
         <v>30116</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>2.7410000000000001</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>57.652169999999998</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>-161.48283000000001</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>1.8</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>3.6</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>61.143999999999998</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>120</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>4.4045129000000002E-2</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>1388.2125308340001</v>
       </c>
-      <c r="AO38">
+      <c r="AP38">
         <v>2724.4783412939901</v>
       </c>
-      <c r="AP38">
+      <c r="AQ38">
         <f t="shared" si="0"/>
         <v>100.00018230916072</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>57.979170000000003</v>
       </c>
@@ -5810,84 +5810,84 @@
       <c r="Q39" t="s">
         <v>60</v>
       </c>
-      <c r="R39">
-        <v>1982</v>
-      </c>
-      <c r="S39" t="s">
+      <c r="S39">
+        <v>1982</v>
+      </c>
+      <c r="T39" t="s">
         <v>152</v>
       </c>
-      <c r="T39">
-        <v>10285</v>
-      </c>
-      <c r="U39" t="s">
+      <c r="U39">
+        <v>10285</v>
+      </c>
+      <c r="V39" t="s">
         <v>153</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>154</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>155</v>
       </c>
-      <c r="X39">
-        <v>19</v>
-      </c>
       <c r="Y39">
+        <v>19</v>
+      </c>
+      <c r="Z39">
         <v>18</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>198201</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>4220</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AC39" t="s">
         <v>59</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>48</v>
       </c>
-      <c r="AD39">
-        <v>10</v>
-      </c>
-      <c r="AE39" s="1">
+      <c r="AE39">
+        <v>10</v>
+      </c>
+      <c r="AF39" s="1">
         <v>30116</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>2.9260000000000002</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>57.979170000000003</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>-161.47933</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>1.8</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>3.6</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>16.012</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>36</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>4.5376408E-2</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>352.87059301829299</v>
       </c>
-      <c r="AO39">
+      <c r="AP39">
         <v>793.36381143258404</v>
       </c>
-      <c r="AP39">
+      <c r="AQ39">
         <f t="shared" si="0"/>
         <v>100.00016805574091</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>58.266500000000001</v>
       </c>
@@ -5939,84 +5939,84 @@
       <c r="Q40" t="s">
         <v>85</v>
       </c>
-      <c r="R40">
-        <v>1982</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="S40">
+        <v>1982</v>
+      </c>
+      <c r="T40" t="s">
         <v>152</v>
       </c>
-      <c r="T40">
-        <v>10285</v>
-      </c>
-      <c r="U40" t="s">
+      <c r="U40">
+        <v>10285</v>
+      </c>
+      <c r="V40" t="s">
         <v>153</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>154</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>155</v>
       </c>
-      <c r="X40">
-        <v>19</v>
-      </c>
       <c r="Y40">
         <v>19</v>
       </c>
       <c r="Z40">
+        <v>19</v>
+      </c>
+      <c r="AA40">
         <v>198201</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>4221</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AC40" t="s">
         <v>84</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>38</v>
       </c>
-      <c r="AD40">
-        <v>10</v>
-      </c>
-      <c r="AE40" s="1">
+      <c r="AE40">
+        <v>10</v>
+      </c>
+      <c r="AF40" s="1">
         <v>30116</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>2.778</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>58.266500000000001</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>-161.40199999999999</v>
       </c>
-      <c r="AI40">
+      <c r="AJ40">
         <v>4.8</v>
       </c>
-      <c r="AJ40">
+      <c r="AK40">
         <v>5.2</v>
       </c>
-      <c r="AK40">
+      <c r="AL40">
         <v>6.532</v>
       </c>
-      <c r="AL40">
+      <c r="AM40">
         <v>23</v>
       </c>
-      <c r="AM40">
+      <c r="AN40">
         <v>4.0475459999999998E-2</v>
       </c>
-      <c r="AN40">
+      <c r="AO40">
         <v>161.381735995094</v>
       </c>
-      <c r="AO40">
+      <c r="AP40">
         <v>568.24554927850102</v>
       </c>
-      <c r="AP40">
+      <c r="AQ40">
         <f t="shared" si="0"/>
         <v>100.0010757188586</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>58.665669999999999</v>
       </c>
@@ -6068,84 +6068,84 @@
       <c r="Q41" t="s">
         <v>107</v>
       </c>
-      <c r="R41">
-        <v>1982</v>
-      </c>
-      <c r="S41" t="s">
+      <c r="S41">
+        <v>1982</v>
+      </c>
+      <c r="T41" t="s">
         <v>152</v>
       </c>
-      <c r="T41">
-        <v>10285</v>
-      </c>
-      <c r="U41" t="s">
+      <c r="U41">
+        <v>10285</v>
+      </c>
+      <c r="V41" t="s">
         <v>153</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>154</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>155</v>
       </c>
-      <c r="X41">
-        <v>19</v>
-      </c>
       <c r="Y41">
+        <v>19</v>
+      </c>
+      <c r="Z41">
         <v>20</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>198201</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>4222</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AC41" t="s">
         <v>106</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>24</v>
       </c>
-      <c r="AD41">
-        <v>10</v>
-      </c>
-      <c r="AE41" s="1">
+      <c r="AE41">
+        <v>10</v>
+      </c>
+      <c r="AF41" s="1">
         <v>30117</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>3.0190000000000001</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>58.665669999999999</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>-162.70183</v>
       </c>
-      <c r="AI41">
+      <c r="AJ41">
         <v>2.6</v>
       </c>
-      <c r="AJ41">
+      <c r="AK41">
         <v>2.7</v>
       </c>
-      <c r="AK41">
+      <c r="AL41">
         <v>49.26</v>
       </c>
-      <c r="AL41">
+      <c r="AM41">
         <v>225</v>
       </c>
-      <c r="AM41">
+      <c r="AN41">
         <v>4.3986829999999998E-2</v>
       </c>
-      <c r="AN41">
+      <c r="AO41">
         <v>1119.88065518702</v>
       </c>
-      <c r="AO41">
+      <c r="AP41">
         <v>5115.1674262500801</v>
       </c>
-      <c r="AP41">
+      <c r="AQ41">
         <f t="shared" si="0"/>
         <v>100.00005850510948</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>58.354500000000002</v>
       </c>
@@ -6197,84 +6197,84 @@
       <c r="Q42" t="s">
         <v>104</v>
       </c>
-      <c r="R42">
-        <v>1982</v>
-      </c>
-      <c r="S42" t="s">
+      <c r="S42">
+        <v>1982</v>
+      </c>
+      <c r="T42" t="s">
         <v>152</v>
       </c>
-      <c r="T42">
-        <v>10285</v>
-      </c>
-      <c r="U42" t="s">
+      <c r="U42">
+        <v>10285</v>
+      </c>
+      <c r="V42" t="s">
         <v>153</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>154</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>155</v>
       </c>
-      <c r="X42">
-        <v>19</v>
-      </c>
       <c r="Y42">
+        <v>19</v>
+      </c>
+      <c r="Z42">
         <v>21</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>198201</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>4223</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AC42" t="s">
         <v>103</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>29</v>
       </c>
-      <c r="AD42">
-        <v>10</v>
-      </c>
-      <c r="AE42" s="1">
+      <c r="AE42">
+        <v>10</v>
+      </c>
+      <c r="AF42" s="1">
         <v>30117</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>2.593</v>
       </c>
-      <c r="AG42">
+      <c r="AH42">
         <v>58.354500000000002</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>-162.71867</v>
-      </c>
-      <c r="AI42">
-        <v>2.1</v>
       </c>
       <c r="AJ42">
         <v>2.1</v>
       </c>
       <c r="AK42">
+        <v>2.1</v>
+      </c>
+      <c r="AL42">
         <v>139.208</v>
       </c>
-      <c r="AL42">
+      <c r="AM42">
         <v>428</v>
       </c>
-      <c r="AM42">
+      <c r="AN42">
         <v>3.7780010000000003E-2</v>
       </c>
-      <c r="AN42">
+      <c r="AO42">
         <v>3684.6999246426899</v>
       </c>
-      <c r="AO42">
+      <c r="AP42">
         <v>11328.7423693112</v>
       </c>
-      <c r="AP42">
+      <c r="AQ42">
         <f t="shared" si="0"/>
         <v>99.999997954859012</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>58.027500000000003</v>
       </c>
@@ -6326,84 +6326,84 @@
       <c r="Q43" t="s">
         <v>83</v>
       </c>
-      <c r="R43">
-        <v>1982</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="S43">
+        <v>1982</v>
+      </c>
+      <c r="T43" t="s">
         <v>152</v>
       </c>
-      <c r="T43">
-        <v>10285</v>
-      </c>
-      <c r="U43" t="s">
+      <c r="U43">
+        <v>10285</v>
+      </c>
+      <c r="V43" t="s">
         <v>153</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>154</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>155</v>
       </c>
-      <c r="X43">
-        <v>19</v>
-      </c>
       <c r="Y43">
+        <v>19</v>
+      </c>
+      <c r="Z43">
         <v>22</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>198201</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>4224</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AC43" t="s">
         <v>82</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>38</v>
       </c>
-      <c r="AD43">
-        <v>10</v>
-      </c>
-      <c r="AE43" s="1">
+      <c r="AE43">
+        <v>10</v>
+      </c>
+      <c r="AF43" s="1">
         <v>30117</v>
       </c>
-      <c r="AF43">
+      <c r="AG43">
         <v>3</v>
       </c>
-      <c r="AG43">
+      <c r="AH43">
         <v>58.027500000000003</v>
       </c>
-      <c r="AH43">
+      <c r="AI43">
         <v>-162.74850000000001</v>
       </c>
-      <c r="AI43">
+      <c r="AJ43">
         <v>1.7</v>
       </c>
-      <c r="AJ43">
+      <c r="AK43">
         <v>2.7</v>
       </c>
-      <c r="AK43">
+      <c r="AL43">
         <v>74.207999999999998</v>
       </c>
-      <c r="AL43">
+      <c r="AM43">
         <v>164</v>
       </c>
-      <c r="AM43">
+      <c r="AN43">
         <v>4.6524000000000003E-2</v>
       </c>
-      <c r="AN43">
+      <c r="AO43">
         <v>1595.0477173071999</v>
       </c>
-      <c r="AO43">
+      <c r="AP43">
         <v>3525.0623334193101</v>
       </c>
-      <c r="AP43">
+      <c r="AQ43">
         <f t="shared" si="0"/>
         <v>99.999856888950191</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>57.7</v>
       </c>
@@ -6455,84 +6455,84 @@
       <c r="Q44" t="s">
         <v>58</v>
       </c>
-      <c r="R44">
-        <v>1982</v>
-      </c>
-      <c r="S44" t="s">
+      <c r="S44">
+        <v>1982</v>
+      </c>
+      <c r="T44" t="s">
         <v>152</v>
       </c>
-      <c r="T44">
-        <v>10285</v>
-      </c>
-      <c r="U44" t="s">
+      <c r="U44">
+        <v>10285</v>
+      </c>
+      <c r="V44" t="s">
         <v>153</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>154</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>155</v>
       </c>
-      <c r="X44">
-        <v>19</v>
-      </c>
       <c r="Y44">
+        <v>19</v>
+      </c>
+      <c r="Z44">
         <v>23</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>198201</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>4225</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AC44" t="s">
         <v>57</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>42</v>
       </c>
-      <c r="AD44">
-        <v>10</v>
-      </c>
-      <c r="AE44" s="1">
+      <c r="AE44">
+        <v>10</v>
+      </c>
+      <c r="AF44" s="1">
         <v>30117</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>3.2040000000000002</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>57.7</v>
       </c>
-      <c r="AH44">
+      <c r="AI44">
         <v>-162.75333000000001</v>
       </c>
-      <c r="AI44">
+      <c r="AJ44">
         <v>0.8</v>
       </c>
-      <c r="AJ44">
+      <c r="AK44">
         <v>2.8</v>
       </c>
-      <c r="AK44">
+      <c r="AL44">
         <v>55.927999999999997</v>
       </c>
-      <c r="AL44">
+      <c r="AM44">
         <v>132</v>
       </c>
-      <c r="AM44">
+      <c r="AN44">
         <v>4.9687632000000002E-2</v>
       </c>
-      <c r="AN44">
+      <c r="AO44">
         <v>1125.5919783015599</v>
       </c>
-      <c r="AO44">
+      <c r="AP44">
         <v>2656.5967160600399</v>
       </c>
-      <c r="AP44">
+      <c r="AQ44">
         <f t="shared" si="0"/>
         <v>100.00017575685284</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>57.344169999999998</v>
       </c>
@@ -6584,84 +6584,84 @@
       <c r="Q45" t="s">
         <v>40</v>
       </c>
-      <c r="R45">
-        <v>1982</v>
-      </c>
-      <c r="S45" t="s">
+      <c r="S45">
+        <v>1982</v>
+      </c>
+      <c r="T45" t="s">
         <v>152</v>
       </c>
-      <c r="T45">
-        <v>10285</v>
-      </c>
-      <c r="U45" t="s">
+      <c r="U45">
+        <v>10285</v>
+      </c>
+      <c r="V45" t="s">
         <v>153</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>154</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>155</v>
       </c>
-      <c r="X45">
-        <v>19</v>
-      </c>
       <c r="Y45">
+        <v>19</v>
+      </c>
+      <c r="Z45">
         <v>24</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>198201</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>4226</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AC45" t="s">
         <v>39</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>48</v>
       </c>
-      <c r="AD45">
-        <v>10</v>
-      </c>
-      <c r="AE45" s="1">
+      <c r="AE45">
+        <v>10</v>
+      </c>
+      <c r="AF45" s="1">
         <v>30117</v>
       </c>
-      <c r="AF45">
+      <c r="AG45">
         <v>3.278</v>
       </c>
-      <c r="AG45">
+      <c r="AH45">
         <v>57.344169999999998</v>
       </c>
-      <c r="AH45">
+      <c r="AI45">
         <v>-162.767</v>
       </c>
-      <c r="AI45">
+      <c r="AJ45">
         <v>0.7</v>
       </c>
-      <c r="AJ45">
+      <c r="AK45">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AK45">
+      <c r="AL45">
         <v>103.328</v>
       </c>
-      <c r="AL45">
+      <c r="AM45">
         <v>177</v>
       </c>
-      <c r="AM45">
+      <c r="AN45">
         <v>5.0835223999999998E-2</v>
       </c>
-      <c r="AN45">
+      <c r="AO45">
         <v>2032.60636758481</v>
       </c>
-      <c r="AO45">
+      <c r="AP45">
         <v>3481.8377115836101</v>
       </c>
-      <c r="AP45">
+      <c r="AQ45">
         <f t="shared" si="0"/>
         <v>99.999821293057195</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>55.70167</v>
       </c>
@@ -6713,84 +6713,84 @@
       <c r="Q46" t="s">
         <v>20</v>
       </c>
-      <c r="R46">
-        <v>1982</v>
-      </c>
-      <c r="S46" t="s">
+      <c r="S46">
+        <v>1982</v>
+      </c>
+      <c r="T46" t="s">
         <v>152</v>
       </c>
-      <c r="T46">
-        <v>10285</v>
-      </c>
-      <c r="U46" t="s">
+      <c r="U46">
+        <v>10285</v>
+      </c>
+      <c r="V46" t="s">
         <v>153</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>154</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>155</v>
       </c>
-      <c r="X46">
-        <v>19</v>
-      </c>
       <c r="Y46">
+        <v>19</v>
+      </c>
+      <c r="Z46">
         <v>29</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>198201</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>4231</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AC46" t="s">
         <v>17</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>51</v>
       </c>
-      <c r="AD46">
-        <v>10</v>
-      </c>
-      <c r="AE46" s="1">
+      <c r="AE46">
+        <v>10</v>
+      </c>
+      <c r="AF46" s="1">
         <v>30118</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>2.6850000000000001</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>55.70167</v>
       </c>
-      <c r="AH46">
+      <c r="AI46">
         <v>-162.82467</v>
       </c>
-      <c r="AI46">
+      <c r="AJ46">
         <v>4.7</v>
       </c>
-      <c r="AJ46">
+      <c r="AK46">
         <v>7</v>
       </c>
-      <c r="AK46">
+      <c r="AL46">
         <v>13.063000000000001</v>
       </c>
-      <c r="AL46">
+      <c r="AM46">
         <v>29</v>
       </c>
-      <c r="AM46">
+      <c r="AN46">
         <v>4.3145265000000002E-2</v>
       </c>
-      <c r="AN46">
+      <c r="AO46">
         <v>302.76787035611</v>
       </c>
-      <c r="AO46">
+      <c r="AP46">
         <v>672.14791704257698</v>
       </c>
-      <c r="AP46">
+      <c r="AQ46">
         <f t="shared" si="0"/>
         <v>99.999296613307138</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>57.650170000000003</v>
       </c>
@@ -6842,84 +6842,84 @@
       <c r="Q47" t="s">
         <v>46</v>
       </c>
-      <c r="R47">
-        <v>1982</v>
-      </c>
-      <c r="S47" t="s">
+      <c r="S47">
+        <v>1982</v>
+      </c>
+      <c r="T47" t="s">
         <v>152</v>
       </c>
-      <c r="T47">
-        <v>10285</v>
-      </c>
-      <c r="U47" t="s">
+      <c r="U47">
+        <v>10285</v>
+      </c>
+      <c r="V47" t="s">
         <v>153</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>154</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>155</v>
       </c>
-      <c r="X47">
-        <v>19</v>
-      </c>
       <c r="Y47">
+        <v>19</v>
+      </c>
+      <c r="Z47">
         <v>38</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>198201</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>4240</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AC47" t="s">
         <v>45</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>51</v>
       </c>
-      <c r="AD47">
-        <v>10</v>
-      </c>
-      <c r="AE47" s="1">
+      <c r="AE47">
+        <v>10</v>
+      </c>
+      <c r="AF47" s="1">
         <v>30120</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>2.8340000000000001</v>
       </c>
-      <c r="AG47">
+      <c r="AH47">
         <v>57.650170000000003</v>
       </c>
-      <c r="AH47">
+      <c r="AI47">
         <v>-163.99199999999999</v>
       </c>
-      <c r="AI47">
+      <c r="AJ47">
         <v>0.7</v>
       </c>
-      <c r="AJ47">
+      <c r="AK47">
         <v>6</v>
       </c>
-      <c r="AK47">
+      <c r="AL47">
         <v>165.51599999999999</v>
       </c>
-      <c r="AL47">
+      <c r="AM47">
         <v>469</v>
       </c>
-      <c r="AM47">
+      <c r="AN47">
         <v>4.3949672000000002E-2</v>
       </c>
-      <c r="AN47">
+      <c r="AO47">
         <v>3766.03493195581</v>
       </c>
-      <c r="AO47">
+      <c r="AP47">
         <v>10671.2969325459</v>
       </c>
-      <c r="AP47">
+      <c r="AQ47">
         <f t="shared" si="0"/>
         <v>100.00013095901546</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>57.981169999999999</v>
       </c>
@@ -6971,84 +6971,84 @@
       <c r="Q48" t="s">
         <v>62</v>
       </c>
-      <c r="R48">
-        <v>1982</v>
-      </c>
-      <c r="S48" t="s">
+      <c r="S48">
+        <v>1982</v>
+      </c>
+      <c r="T48" t="s">
         <v>152</v>
       </c>
-      <c r="T48">
-        <v>10285</v>
-      </c>
-      <c r="U48" t="s">
+      <c r="U48">
+        <v>10285</v>
+      </c>
+      <c r="V48" t="s">
         <v>153</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>154</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>155</v>
       </c>
-      <c r="X48">
-        <v>19</v>
-      </c>
       <c r="Y48">
+        <v>19</v>
+      </c>
+      <c r="Z48">
         <v>39</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>198201</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>4241</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AC48" t="s">
         <v>61</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>46</v>
       </c>
-      <c r="AD48">
-        <v>10</v>
-      </c>
-      <c r="AE48" s="1">
+      <c r="AE48">
+        <v>10</v>
+      </c>
+      <c r="AF48" s="1">
         <v>30120</v>
       </c>
-      <c r="AF48">
+      <c r="AG48">
         <v>2.9449999999999998</v>
       </c>
-      <c r="AG48">
+      <c r="AH48">
         <v>57.981169999999999</v>
       </c>
-      <c r="AH48">
+      <c r="AI48">
         <v>-164.00067000000001</v>
       </c>
-      <c r="AI48">
+      <c r="AJ48">
         <v>1.3</v>
       </c>
-      <c r="AJ48">
+      <c r="AK48">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AK48">
+      <c r="AL48">
         <v>40.279000000000003</v>
       </c>
-      <c r="AL48">
+      <c r="AM48">
         <v>130</v>
       </c>
-      <c r="AM48">
+      <c r="AN48">
         <v>4.5671059999999999E-2</v>
       </c>
-      <c r="AN48">
+      <c r="AO48">
         <v>881.93705160335696</v>
       </c>
-      <c r="AO48">
+      <c r="AP48">
         <v>2846.44148832981</v>
       </c>
-      <c r="AP48">
+      <c r="AQ48">
         <f t="shared" si="0"/>
         <v>99.999665691924278</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>58.33267</v>
       </c>
@@ -7100,84 +7100,84 @@
       <c r="Q49" t="s">
         <v>94</v>
       </c>
-      <c r="R49">
-        <v>1982</v>
-      </c>
-      <c r="S49" t="s">
+      <c r="S49">
+        <v>1982</v>
+      </c>
+      <c r="T49" t="s">
         <v>152</v>
       </c>
-      <c r="T49">
-        <v>10285</v>
-      </c>
-      <c r="U49" t="s">
+      <c r="U49">
+        <v>10285</v>
+      </c>
+      <c r="V49" t="s">
         <v>153</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>154</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>155</v>
       </c>
-      <c r="X49">
-        <v>19</v>
-      </c>
       <c r="Y49">
+        <v>19</v>
+      </c>
+      <c r="Z49">
         <v>41</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>198201</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>4243</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AC49" t="s">
         <v>93</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>40</v>
       </c>
-      <c r="AD49">
-        <v>10</v>
-      </c>
-      <c r="AE49" s="1">
+      <c r="AE49">
+        <v>10</v>
+      </c>
+      <c r="AF49" s="1">
         <v>30120</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>3.0739999999999998</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>58.33267</v>
       </c>
-      <c r="AH49">
+      <c r="AI49">
         <v>-163.99517</v>
       </c>
-      <c r="AI49">
+      <c r="AJ49">
         <v>2</v>
       </c>
-      <c r="AJ49">
+      <c r="AK49">
         <v>4.5</v>
       </c>
-      <c r="AK49">
+      <c r="AL49">
         <v>89.176000000000002</v>
       </c>
-      <c r="AL49">
+      <c r="AM49">
         <v>247</v>
       </c>
-      <c r="AM49">
+      <c r="AN49">
         <v>4.7671591999999999E-2</v>
       </c>
-      <c r="AN49">
+      <c r="AO49">
         <v>1870.63188491796</v>
       </c>
-      <c r="AO49">
+      <c r="AP49">
         <v>5181.2828067499804</v>
       </c>
-      <c r="AP49">
+      <c r="AQ49">
         <f t="shared" si="0"/>
         <v>100.00010076380471</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>58.669170000000001</v>
       </c>
@@ -7229,84 +7229,84 @@
       <c r="Q50" t="s">
         <v>109</v>
       </c>
-      <c r="R50">
-        <v>1982</v>
-      </c>
-      <c r="S50" t="s">
+      <c r="S50">
+        <v>1982</v>
+      </c>
+      <c r="T50" t="s">
         <v>152</v>
       </c>
-      <c r="T50">
-        <v>10285</v>
-      </c>
-      <c r="U50" t="s">
+      <c r="U50">
+        <v>10285</v>
+      </c>
+      <c r="V50" t="s">
         <v>153</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>154</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>155</v>
       </c>
-      <c r="X50">
-        <v>19</v>
-      </c>
       <c r="Y50">
+        <v>19</v>
+      </c>
+      <c r="Z50">
         <v>42</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>198201</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>4244</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AC50" t="s">
         <v>108</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>31</v>
       </c>
-      <c r="AD50">
-        <v>10</v>
-      </c>
-      <c r="AE50" s="1">
+      <c r="AE50">
+        <v>10</v>
+      </c>
+      <c r="AF50" s="1">
         <v>30120</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <v>3.4260000000000002</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>58.669170000000001</v>
       </c>
-      <c r="AH50">
+      <c r="AI50">
         <v>-163.99</v>
       </c>
-      <c r="AI50">
+      <c r="AJ50">
         <v>2.7</v>
       </c>
-      <c r="AJ50">
+      <c r="AK50">
         <v>4</v>
       </c>
-      <c r="AK50">
+      <c r="AL50">
         <v>117.027</v>
       </c>
-      <c r="AL50">
+      <c r="AM50">
         <v>278</v>
       </c>
-      <c r="AM50">
+      <c r="AN50">
         <v>5.3130407999999997E-2</v>
       </c>
-      <c r="AN50">
+      <c r="AO50">
         <v>2202.63695321143</v>
       </c>
-      <c r="AO50">
+      <c r="AP50">
         <v>5232.4085295938303</v>
       </c>
-      <c r="AP50">
+      <c r="AQ50">
         <f t="shared" si="0"/>
         <v>99.999861675599732</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>58.990499999999997</v>
       </c>
@@ -7358,84 +7358,84 @@
       <c r="Q51" t="s">
         <v>119</v>
       </c>
-      <c r="R51">
-        <v>1982</v>
-      </c>
-      <c r="S51" t="s">
+      <c r="S51">
+        <v>1982</v>
+      </c>
+      <c r="T51" t="s">
         <v>152</v>
       </c>
-      <c r="T51">
-        <v>10285</v>
-      </c>
-      <c r="U51" t="s">
+      <c r="U51">
+        <v>10285</v>
+      </c>
+      <c r="V51" t="s">
         <v>153</v>
       </c>
-      <c r="V51" t="s">
+      <c r="W51" t="s">
         <v>154</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>155</v>
       </c>
-      <c r="X51">
-        <v>19</v>
-      </c>
       <c r="Y51">
+        <v>19</v>
+      </c>
+      <c r="Z51">
         <v>43</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>198201</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>4245</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AC51" t="s">
         <v>118</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>26</v>
       </c>
-      <c r="AD51">
-        <v>10</v>
-      </c>
-      <c r="AE51" s="1">
+      <c r="AE51">
+        <v>10</v>
+      </c>
+      <c r="AF51" s="1">
         <v>30120</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>2.9079999999999999</v>
       </c>
-      <c r="AG51">
+      <c r="AH51">
         <v>58.990499999999997</v>
       </c>
-      <c r="AH51">
+      <c r="AI51">
         <v>-163.99483000000001</v>
       </c>
-      <c r="AI51">
+      <c r="AJ51">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AJ51">
+      <c r="AK51">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AK51">
+      <c r="AL51">
         <v>368.54399999999998</v>
       </c>
-      <c r="AL51">
+      <c r="AM51">
         <v>944</v>
       </c>
-      <c r="AM51">
+      <c r="AN51">
         <v>4.2369560000000001E-2</v>
       </c>
-      <c r="AN51">
+      <c r="AO51">
         <v>8698.3202091312705</v>
       </c>
-      <c r="AO51">
+      <c r="AP51">
         <v>22280.146406995998</v>
       </c>
-      <c r="AP51">
+      <c r="AQ51">
         <f t="shared" si="0"/>
         <v>100.00000240427198</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>59.31</v>
       </c>
@@ -7487,84 +7487,84 @@
       <c r="Q52" t="s">
         <v>125</v>
       </c>
-      <c r="R52">
-        <v>1982</v>
-      </c>
-      <c r="S52" t="s">
+      <c r="S52">
+        <v>1982</v>
+      </c>
+      <c r="T52" t="s">
         <v>152</v>
       </c>
-      <c r="T52">
-        <v>10285</v>
-      </c>
-      <c r="U52" t="s">
+      <c r="U52">
+        <v>10285</v>
+      </c>
+      <c r="V52" t="s">
         <v>153</v>
       </c>
-      <c r="V52" t="s">
+      <c r="W52" t="s">
         <v>154</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>155</v>
       </c>
-      <c r="X52">
-        <v>19</v>
-      </c>
       <c r="Y52">
+        <v>19</v>
+      </c>
+      <c r="Z52">
         <v>44</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>198201</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>4246</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AC52" t="s">
         <v>124</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>20</v>
       </c>
-      <c r="AD52">
-        <v>10</v>
-      </c>
-      <c r="AE52" s="1">
+      <c r="AE52">
+        <v>10</v>
+      </c>
+      <c r="AF52" s="1">
         <v>30120</v>
       </c>
-      <c r="AF52">
+      <c r="AG52">
         <v>2.593</v>
       </c>
-      <c r="AG52">
+      <c r="AH52">
         <v>59.31</v>
       </c>
-      <c r="AH52">
+      <c r="AI52">
         <v>-163.99666999999999</v>
       </c>
-      <c r="AI52">
+      <c r="AJ52">
         <v>6</v>
       </c>
-      <c r="AJ52">
+      <c r="AK52">
         <v>6.3</v>
       </c>
-      <c r="AK52">
+      <c r="AL52">
         <v>6.1689999999999996</v>
       </c>
-      <c r="AL52">
+      <c r="AM52">
         <v>67</v>
       </c>
-      <c r="AM52">
+      <c r="AN52">
         <v>3.7780010000000003E-2</v>
       </c>
-      <c r="AN52">
+      <c r="AO52">
         <v>163.28741045859999</v>
       </c>
-      <c r="AO52">
+      <c r="AP52">
         <v>1773.42462323329</v>
       </c>
-      <c r="AP52">
+      <c r="AQ52">
         <f t="shared" si="0"/>
         <v>99.998414145752946</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>59.015500000000003</v>
       </c>
@@ -7616,84 +7616,84 @@
       <c r="Q53" t="s">
         <v>123</v>
       </c>
-      <c r="R53">
-        <v>1982</v>
-      </c>
-      <c r="S53" t="s">
+      <c r="S53">
+        <v>1982</v>
+      </c>
+      <c r="T53" t="s">
         <v>152</v>
       </c>
-      <c r="T53">
-        <v>10285</v>
-      </c>
-      <c r="U53" t="s">
+      <c r="U53">
+        <v>10285</v>
+      </c>
+      <c r="V53" t="s">
         <v>153</v>
       </c>
-      <c r="V53" t="s">
+      <c r="W53" t="s">
         <v>154</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>155</v>
       </c>
-      <c r="X53">
-        <v>19</v>
-      </c>
       <c r="Y53">
+        <v>19</v>
+      </c>
+      <c r="Z53">
         <v>46</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>198201</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>4248</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AC53" t="s">
         <v>122</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <v>26</v>
       </c>
-      <c r="AD53">
-        <v>10</v>
-      </c>
-      <c r="AE53" s="1">
+      <c r="AE53">
+        <v>10</v>
+      </c>
+      <c r="AF53" s="1">
         <v>30121</v>
       </c>
-      <c r="AF53">
+      <c r="AG53">
         <v>3.0739999999999998</v>
       </c>
-      <c r="AG53">
+      <c r="AH53">
         <v>59.015500000000003</v>
       </c>
-      <c r="AH53">
+      <c r="AI53">
         <v>-165.29883000000001</v>
       </c>
-      <c r="AI53">
+      <c r="AJ53">
         <v>3.2</v>
       </c>
-      <c r="AJ53">
+      <c r="AK53">
         <v>3.3</v>
       </c>
-      <c r="AK53">
+      <c r="AL53">
         <v>181.16499999999999</v>
       </c>
-      <c r="AL53">
+      <c r="AM53">
         <v>492</v>
       </c>
-      <c r="AM53">
+      <c r="AN53">
         <v>4.4788179999999997E-2</v>
       </c>
-      <c r="AN53">
+      <c r="AO53">
         <v>4044.9288182730302</v>
       </c>
-      <c r="AO53">
+      <c r="AP53">
         <v>10985.041142551399</v>
       </c>
-      <c r="AP53">
+      <c r="AQ53">
         <f t="shared" si="0"/>
         <v>99.999970784983432</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>58.681829999999998</v>
       </c>
@@ -7745,84 +7745,84 @@
       <c r="Q54" t="s">
         <v>113</v>
       </c>
-      <c r="R54">
-        <v>1982</v>
-      </c>
-      <c r="S54" t="s">
+      <c r="S54">
+        <v>1982</v>
+      </c>
+      <c r="T54" t="s">
         <v>152</v>
       </c>
-      <c r="T54">
-        <v>10285</v>
-      </c>
-      <c r="U54" t="s">
+      <c r="U54">
+        <v>10285</v>
+      </c>
+      <c r="V54" t="s">
         <v>153</v>
       </c>
-      <c r="V54" t="s">
+      <c r="W54" t="s">
         <v>154</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>155</v>
       </c>
-      <c r="X54">
-        <v>19</v>
-      </c>
       <c r="Y54">
+        <v>19</v>
+      </c>
+      <c r="Z54">
         <v>47</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>198201</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>4249</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AC54" t="s">
         <v>112</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>37</v>
       </c>
-      <c r="AD54">
-        <v>10</v>
-      </c>
-      <c r="AE54" s="1">
+      <c r="AE54">
+        <v>10</v>
+      </c>
+      <c r="AF54" s="1">
         <v>30121</v>
       </c>
-      <c r="AF54">
+      <c r="AG54">
         <v>3.0369999999999999</v>
       </c>
-      <c r="AG54">
+      <c r="AH54">
         <v>58.681829999999998</v>
       </c>
-      <c r="AH54">
+      <c r="AI54">
         <v>-165.29966999999999</v>
       </c>
-      <c r="AI54">
+      <c r="AJ54">
         <v>2</v>
       </c>
-      <c r="AJ54">
+      <c r="AK54">
         <v>5.6</v>
       </c>
-      <c r="AK54">
+      <c r="AL54">
         <v>224.71</v>
       </c>
-      <c r="AL54">
+      <c r="AM54">
         <v>613</v>
       </c>
-      <c r="AM54">
+      <c r="AN54">
         <v>4.7097795999999997E-2</v>
       </c>
-      <c r="AN54">
+      <c r="AO54">
         <v>4771.1362119790101</v>
       </c>
-      <c r="AO54">
+      <c r="AP54">
         <v>13015.4710424242</v>
       </c>
-      <c r="AP54">
+      <c r="AQ54">
         <f t="shared" si="0"/>
         <v>99.999920605536843</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>58.348999999999997</v>
       </c>
@@ -7874,84 +7874,84 @@
       <c r="Q55" t="s">
         <v>102</v>
       </c>
-      <c r="R55">
-        <v>1982</v>
-      </c>
-      <c r="S55" t="s">
+      <c r="S55">
+        <v>1982</v>
+      </c>
+      <c r="T55" t="s">
         <v>152</v>
       </c>
-      <c r="T55">
-        <v>10285</v>
-      </c>
-      <c r="U55" t="s">
+      <c r="U55">
+        <v>10285</v>
+      </c>
+      <c r="V55" t="s">
         <v>153</v>
       </c>
-      <c r="V55" t="s">
+      <c r="W55" t="s">
         <v>154</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>155</v>
       </c>
-      <c r="X55">
-        <v>19</v>
-      </c>
       <c r="Y55">
+        <v>19</v>
+      </c>
+      <c r="Z55">
         <v>48</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>198201</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>4250</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AC55" t="s">
         <v>101</v>
       </c>
-      <c r="AC55">
+      <c r="AD55">
         <v>44</v>
       </c>
-      <c r="AD55">
-        <v>10</v>
-      </c>
-      <c r="AE55" s="1">
+      <c r="AE55">
+        <v>10</v>
+      </c>
+      <c r="AF55" s="1">
         <v>30121</v>
       </c>
-      <c r="AF55">
+      <c r="AG55">
         <v>2.5369999999999999</v>
       </c>
-      <c r="AG55">
+      <c r="AH55">
         <v>58.348999999999997</v>
       </c>
-      <c r="AH55">
+      <c r="AI55">
         <v>-165.28882999999999</v>
       </c>
-      <c r="AI55">
+      <c r="AJ55">
         <v>1.3</v>
       </c>
-      <c r="AJ55">
+      <c r="AK55">
         <v>6.3</v>
       </c>
-      <c r="AK55">
+      <c r="AL55">
         <v>153.22399999999999</v>
       </c>
-      <c r="AL55">
+      <c r="AM55">
         <v>432</v>
       </c>
-      <c r="AM55">
+      <c r="AN55">
         <v>3.9343796E-2</v>
       </c>
-      <c r="AN55">
+      <c r="AO55">
         <v>3894.4894895245998</v>
       </c>
-      <c r="AO55">
+      <c r="AP55">
         <v>10980.1301328423</v>
       </c>
-      <c r="AP55">
+      <c r="AQ55">
         <f t="shared" si="0"/>
         <v>99.999986892368455</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>58.015329999999999</v>
       </c>
@@ -8003,84 +8003,84 @@
       <c r="Q56" t="s">
         <v>81</v>
       </c>
-      <c r="R56">
-        <v>1982</v>
-      </c>
-      <c r="S56" t="s">
+      <c r="S56">
+        <v>1982</v>
+      </c>
+      <c r="T56" t="s">
         <v>152</v>
       </c>
-      <c r="T56">
-        <v>10285</v>
-      </c>
-      <c r="U56" t="s">
+      <c r="U56">
+        <v>10285</v>
+      </c>
+      <c r="V56" t="s">
         <v>153</v>
       </c>
-      <c r="V56" t="s">
+      <c r="W56" t="s">
         <v>154</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>155</v>
       </c>
-      <c r="X56">
-        <v>19</v>
-      </c>
       <c r="Y56">
+        <v>19</v>
+      </c>
+      <c r="Z56">
         <v>49</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>198201</v>
       </c>
-      <c r="AA56">
+      <c r="AB56">
         <v>4251</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AC56" t="s">
         <v>80</v>
       </c>
-      <c r="AC56">
+      <c r="AD56">
         <v>49</v>
       </c>
-      <c r="AD56">
-        <v>10</v>
-      </c>
-      <c r="AE56" s="1">
+      <c r="AE56">
+        <v>10</v>
+      </c>
+      <c r="AF56" s="1">
         <v>30121</v>
       </c>
-      <c r="AF56">
+      <c r="AG56">
         <v>2.6480000000000001</v>
       </c>
-      <c r="AG56">
+      <c r="AH56">
         <v>58.015329999999999</v>
       </c>
-      <c r="AH56">
+      <c r="AI56">
         <v>-165.24682999999999</v>
       </c>
-      <c r="AI56">
+      <c r="AJ56">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ56">
+      <c r="AK56">
         <v>6</v>
       </c>
-      <c r="AK56">
+      <c r="AL56">
         <v>294.971</v>
       </c>
-      <c r="AL56">
+      <c r="AM56">
         <v>769</v>
       </c>
-      <c r="AM56">
+      <c r="AN56">
         <v>4.2550711999999997E-2</v>
       </c>
-      <c r="AN56">
+      <c r="AO56">
         <v>6932.2224267363599</v>
       </c>
-      <c r="AO56">
+      <c r="AP56">
         <v>18072.553051521201</v>
       </c>
-      <c r="AP56">
+      <c r="AQ56">
         <f t="shared" si="0"/>
         <v>100.00003500662646</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>58.326000000000001</v>
       </c>
@@ -8132,79 +8132,79 @@
       <c r="Q57">
         <v>69</v>
       </c>
-      <c r="R57">
-        <v>1982</v>
-      </c>
-      <c r="S57" t="s">
+      <c r="S57">
+        <v>1982</v>
+      </c>
+      <c r="T57" t="s">
         <v>152</v>
       </c>
-      <c r="T57">
-        <v>10285</v>
-      </c>
-      <c r="U57" t="s">
+      <c r="U57">
+        <v>10285</v>
+      </c>
+      <c r="V57" t="s">
         <v>153</v>
       </c>
-      <c r="V57" t="s">
+      <c r="W57" t="s">
         <v>154</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>155</v>
       </c>
-      <c r="X57">
-        <v>19</v>
-      </c>
       <c r="Y57">
+        <v>19</v>
+      </c>
+      <c r="Z57">
         <v>69</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>198201</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>4271</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AC57" t="s">
         <v>92</v>
       </c>
-      <c r="AC57">
+      <c r="AD57">
         <v>48</v>
       </c>
-      <c r="AD57">
-        <v>10</v>
-      </c>
-      <c r="AE57" s="1">
+      <c r="AE57">
+        <v>10</v>
+      </c>
+      <c r="AF57" s="1">
         <v>30130</v>
       </c>
-      <c r="AF57">
+      <c r="AG57">
         <v>2.722</v>
       </c>
-      <c r="AG57">
+      <c r="AH57">
         <v>58.326000000000001</v>
       </c>
-      <c r="AH57">
+      <c r="AI57">
         <v>-166.56433000000001</v>
       </c>
-      <c r="AI57">
+      <c r="AJ57">
         <v>3.3</v>
       </c>
-      <c r="AJ57">
+      <c r="AK57">
         <v>4.2</v>
       </c>
-      <c r="AK57">
+      <c r="AL57">
         <v>441.89</v>
       </c>
-      <c r="AL57">
+      <c r="AM57">
         <v>1126</v>
       </c>
-      <c r="AM57">
+      <c r="AN57">
         <v>4.4640800000000001E-2</v>
       </c>
-      <c r="AN57">
+      <c r="AO57">
         <v>9898.7921363416408</v>
       </c>
-      <c r="AO57">
+      <c r="AP57">
         <v>25223.562301750899</v>
       </c>
-      <c r="AP57">
+      <c r="AQ57">
         <f t="shared" si="0"/>
         <v>100.00002158184628</v>
       </c>
